--- a/de_para_modais.xlsx
+++ b/de_para_modais.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MLWKT500\Desktop\STREAMLIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MLWKT500\Desktop\StreamLit_ON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE6C9A3-0159-4B18-AC28-B36F62577622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Modais" sheetId="1" r:id="rId1"/>
     <sheet name="Filiais" sheetId="2" r:id="rId2"/>
     <sheet name="CD Entrega" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="658">
   <si>
     <t>Modal Master</t>
   </si>
@@ -2006,12 +2005,15 @@
   </si>
   <si>
     <t>ZÉ DOCA</t>
+  </si>
+  <si>
+    <t>RUF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2138,7 +2140,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7C43025D-44C1-46AA-9E9C-802ADF1482C0}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2152,9 +2154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2192,9 +2194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2229,7 +2231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2264,7 +2266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2437,12 +2439,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3042,16 +3044,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C55">
+  <sortState ref="A2:C55">
     <sortCondition ref="B2:B55"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3964,12 +3978,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A463" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
